--- a/posts/Final/BVBD Applicants Merged.xlsx
+++ b/posts/Final/BVBD Applicants Merged.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasripa/Mi unidad/Uidaho/Clases/PhD/Spring 2024/BCB 520/BCB520GitHub/posts/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C578E1A-0E5F-5B42-BC7E-687EC8C98AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424EF06B-F6F5-A848-80BC-E756ACA3CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="130">
   <si>
     <t>France</t>
   </si>
@@ -382,12 +382,57 @@
   <si>
     <t>Russia</t>
   </si>
+  <si>
+    <t>Cote D'Ivoire</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Hong Kong S.A.R.</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Congo (Kinshasa)</t>
+  </si>
+  <si>
+    <t>Congo (Brazzaville)</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,16 +502,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -474,12 +530,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -508,6 +592,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,10 +880,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1196"/>
+  <dimension ref="A1:H1944"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B393" sqref="B393"/>
+    <sheetView tabSelected="1" topLeftCell="A1920" zoomScale="150" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1924" sqref="B1924"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12461,8 +12549,5981 @@
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1196" s="9"/>
-      <c r="B1196" s="9"/>
+      <c r="A1196" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1196" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1197" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1197" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1198" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1198" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1199" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1199" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1200" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1200" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1201" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1201" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1202" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1202" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1203" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1203" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1204" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1204" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1205" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1205" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1206" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1206" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1207" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1207" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1208" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1208" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1209" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1209" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1210" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1210" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1211" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1211" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1212" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1212" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1213" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1213" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1214" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1214" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1215" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1215" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1216" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1216" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1217" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1217" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1218" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1218" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1219" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1219" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1220" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1220" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1221" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1221" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1222" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1222" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1223" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1223" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1224" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1224" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1225" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1225" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1226" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1226" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1227" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1227" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1228" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1228" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1229" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1229" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1230" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1230" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1231" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1231" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1232" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1232" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1233" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1233" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1234" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1234" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1235" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1235" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1236" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1236" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1237" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1237" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1238" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1238" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1239" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1239" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1240" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1240" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1241" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1241" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1242" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1242" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1243" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1243" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1244" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1244" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1245" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1245" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1246" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1246" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1247" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1247" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1248" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1248" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1249" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1249" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1250" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1250" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1251" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1251" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1252" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1252" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1253" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1253" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1254" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1254" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1255" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1255" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1256" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1256" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1257" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1257" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1258" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1258" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1259" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1259" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1260" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1260" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1261" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1261" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1262" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1262" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1263" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1263" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1264" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1264" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1265" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1265" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1266" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1266" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1267" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1267" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1268" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1268" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1269" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1269" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1270" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1270" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1271" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1271" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1272" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1272" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1273" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1273" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1274" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1274" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1275" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1275" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1276" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1276" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1277" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1277" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1278" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1278" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1279" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1279" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1280" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1280" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1281" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1281" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1282" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1282" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1283" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1283" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1284" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1284" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1285" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1285" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1286" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1286" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1287" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1287" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1288" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1288" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1289" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1289" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1290" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1290" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1291" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1291" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1292" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1292" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1293" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1293" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1294" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1294" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1295" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1295" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1296" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1296" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1297" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1297" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1298" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1298" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1299" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1299" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1300" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1300" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1301" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1301" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1302" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1302" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1303" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1303" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1304" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1304" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1305" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1305" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1306" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1306" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1307" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1307" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1308" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1308" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1309" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1309" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1310" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1310" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1311" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1311" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1312" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1312" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1313" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1313" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1314" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1314" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1315" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1315" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1316" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1316" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1317" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1317" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1318" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1318" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1319" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1319" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1320" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1320" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1321" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1321" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1322" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1322" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1323" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1323" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1324" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1324" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1325" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1325" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1326" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1326" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1327" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1327" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1328" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1328" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1329" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1329" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1330" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1330" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1331" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1331" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1332" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1332" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1333" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1333" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1334" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1334" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1335" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1335" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1336" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1336" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1337" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1337" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1338" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1338" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1339" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1339" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1340" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1340" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1341" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1341" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1342" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1342" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1343" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1343" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1344" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1344" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1345" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1345" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1346" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1346" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1347" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1347" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1348" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1348" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1349" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1349" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1350" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1350" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1351" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1351" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1352" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1352" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1353" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1353" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1354" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1354" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1355" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1355" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1356" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1356" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1357" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1357" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1358" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1358" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1359" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1359" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1360" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1360" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1361" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1361" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1362" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1362" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1363" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1363" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1364" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1364" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1365" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1365" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1366" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1366" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1367" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1367" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1368" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1368" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1369" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1369" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1370" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1370" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1371" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1371" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1372" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1372" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1373" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1373" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1374" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1374" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1375" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1375" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1376" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1376" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1377" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1377" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1378" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1378" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1379" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1379" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1380" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1380" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1381" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1381" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1382" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1382" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1383" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1383" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1384" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1384" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1385" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1385" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1386" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1386" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1387" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1387" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1388" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1388" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1389" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1389" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1390" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1390" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1391" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1391" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1392" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1392" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1393" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1393" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1394" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1394" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1395" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1395" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1396" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1396" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1397" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1397" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1398" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1398" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1399" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1399" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1400" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1400" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1401" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1401" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1402" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1402" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1403" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1403" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1404" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1404" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1405" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1405" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1406" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1406" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1407" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1407" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1408" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1408" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1409" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1409" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1410" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1410" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1411" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1411" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1412" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1412" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1413" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1413" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1414" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1414" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1415" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1415" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1416" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1416" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1417" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1417" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1418" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1418" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1419" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1419" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1420" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1420" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1421" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1421" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1422" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1422" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1423" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1423" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1424" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1424" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1425" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1425" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1426" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1426" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1427" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1427" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1428" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1428" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1429" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1429" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1430" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1430" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1431" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1431" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1432" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1432" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1433" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1433" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1434" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1434" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1435" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1435" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1436" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1436" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1437" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1437" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1438" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1438" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1439" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1439" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1440" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1440" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1441" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1441" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1442" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1442" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1443" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1443" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1444" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1444" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1445" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1445" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1446" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1446" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1447" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1447" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1448" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1448" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1449" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1449" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1450" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1450" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1451" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1451" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1452" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1452" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1453" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1453" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1454" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1454" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1455" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1455" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1456" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1456" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1457" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1457" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1458" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1458" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1459" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1459" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1460" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1460" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1461" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1461" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1462" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1462" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1463" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1463" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1464" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1464" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1465" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1465" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1466" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1466" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1467" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1467" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1468" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1468" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1469" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1469" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1470" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1470" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1471" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1471" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1472" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1472" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1473" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1473" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1474" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1474" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1475" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1475" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1476" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1476" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1477" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1477" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1478" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1478" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1479" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1479" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1480" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1480" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1481" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1481" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1482" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1482" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1483" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1483" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1484" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1484" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1485" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1485" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1486" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1486" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1487" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1487" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1488" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1488" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1489" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1489" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1490" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1490" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1491" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1491" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1492" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1492" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1493" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1493" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1494" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1494" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1495" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1495" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1496" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1496" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1497" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1497" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1498" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1498" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1499" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1499" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1500" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1500" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1501" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1501" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1502" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1502" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1503" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1503" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1504" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1504" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1505" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1505" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1506" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1506" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1507" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1507" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1508" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1508" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1509" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1509" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1510" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1510" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1511" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1511" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1512" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1512" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1513" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1513" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1514" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1514" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1515" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1515" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1516" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1516" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1517" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1517" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1518" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1518" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1519" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1519" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1520" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1520" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1521" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1521" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1522" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1522" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1523" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1523" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1524" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1524" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1525" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1525" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1526" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1526" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1527" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1527" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1528" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1528" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1529" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1529" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1530" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1530" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1531" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1531" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1532" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1532" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1533" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1533" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1534" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1534" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1535" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1535" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1536" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1536" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1537" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1537" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1538" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1538" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1539" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1539" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1540" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1540" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1541" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1541" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1542" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1542" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1543" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1543" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1544" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1544" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1545" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1545" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1546" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1546" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1547" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1547" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1548" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1548" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1549" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1549" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1550" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1550" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1551" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1551" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1552" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1552" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1553" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1553" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1554" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1554" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1555" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1555" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1556" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1556" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1557" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1557" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1558" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1558" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1559" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1559" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1560" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1560" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1561" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1561" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1562" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1562" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1563" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1563" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1564" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1564" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1565" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1565" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1566" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1566" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1567" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1567" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1568" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1568" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1569" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1569" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1570" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1570" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1571" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1571" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1572" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1572" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1573" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1573" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1574" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1574" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1575" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1575" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1576" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1576" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1577" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1577" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1578" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1578" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1579" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1579" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1580" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1580" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1581" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1581" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1582" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1582" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1583" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1583" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1584" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1584" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1585" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1585" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1586" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1586" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1587" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1587" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1588" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1588" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1589" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1589" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1590" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1590" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1591" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1591" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1592" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1592" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1593" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1593" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1594" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1594" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1595" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1595" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1596" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1596" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1597" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1597" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1598" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1598" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1599" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1599" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1600" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1600" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1601" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1601" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1602" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1602" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1603" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1603" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1604" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1604" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1605" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1605" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1606" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1606" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1607" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1607" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1608" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1608" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1609" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1609" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1610" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1610" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1611" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1611" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1612" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1612" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1613" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1613" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1614" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1614" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1615" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1615" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1616" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1616" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1617" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1617" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1618" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1618" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1619" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1619" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1620" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1620" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1621" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1621" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1622" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1622" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1623" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1623" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1624" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1624" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1625" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1625" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1626" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1626" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1627" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1627" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1628" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1628" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1629" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1629" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1630" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1630" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1631" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1631" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1632" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1632" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1633" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1633" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1634" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1634" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1635" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1635" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1636" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1636" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1637" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1637" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1638" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1638" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1639" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1639" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1640" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1640" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1641" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1641" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1642" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1642" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1643" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1643" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1644" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1644" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1645" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1645" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1646" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1646" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1647" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1647" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1648" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1648" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1649" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1649" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1650" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1650" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1651" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1651" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1652" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1652" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1653" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1653" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1654" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1654" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1655" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1655" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1656" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1656" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1657" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1657" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1658" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1658" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1659" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1659" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1660" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1660" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1661" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1661" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1662" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1662" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1663" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1663" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1664" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1664" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1665" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1665" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1666" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1666" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1667" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1667" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1668" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1668" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1669" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1669" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1670" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1670" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1671" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1671" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1672" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1672" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1673" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1673" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1674" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1674" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1675" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1675" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1676" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1676" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1677" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1677" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1678" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1678" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1679" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1679" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1680" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1680" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1681" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1681" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1682" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1682" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1683" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1683" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1684" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1684" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1685" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1685" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1686" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1686" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1687" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1687" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1688" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1688" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1689" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1689" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1690" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1690" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1691" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1691" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1692" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1692" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1693" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1693" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1694" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1694" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1695" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1695" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1696" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1696" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1697" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1697" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1698" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1698" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1699" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1699" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1700" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1700" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1701" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1701" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1702" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1702" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1703" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1703" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1704" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1704" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1705" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1705" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1706" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1706" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1707" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1707" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1708" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1708" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1709" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1709" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1710" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1710" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1711" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1711" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1712" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1712" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1713" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1713" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1714" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1714" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1715" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1715" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1716" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1716" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1717" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1717" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1718" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1718" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1719" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1719" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1720" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1720" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1721" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1721" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1722" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1722" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1723" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1723" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1724" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1724" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1725" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1725" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1726" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1726" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1727" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1727" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1728" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1728" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1729" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1729" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1730" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1730" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1731" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1731" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1732" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1732" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1733" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1733" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1734" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1734" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1735" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1735" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1736" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1736" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1737" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1737" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1738" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1738" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1739" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1739" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1740" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1740" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1741" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1741" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1742" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1742" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1743" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1743" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1744" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1744" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1745" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1745" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1746" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1746" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1747" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1747" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1748" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1748" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1749" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1749" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1750" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1750" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1751" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1751" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1752" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1752" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1753" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1753" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1754" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1754" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1755" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1755" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1756" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1756" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1757" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1757" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1758" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1758" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1759" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1759" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1760" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1760" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1761" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1761" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1762" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1762" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1763" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1763" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1764" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1764" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1765" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1765" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1766" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1766" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1767" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1767" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1768" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1768" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1769" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1769" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1770" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1770" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1771" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1771" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1772" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1772" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1773" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1773" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1774" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1774" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1775" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1775" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1776" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1776" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1777" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1777" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1778" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1778" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1779" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1779" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1780" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1780" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1781" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1781" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1782" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1782" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1783" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1783" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1784" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1784" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1785" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1785" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1786" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1786" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1787" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1787" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1788" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1788" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1789" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1789" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1790" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1790" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1791" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1791" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1792" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1792" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1793" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1793" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1794" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1794" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1795" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1795" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1796" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1796" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1797" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1797" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1798" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1798" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1799" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1799" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1800" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1800" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1801" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1801" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1802" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1802" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1803" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1803" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1804" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1804" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1805" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1805" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1806" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1806" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1807" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1807" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1808" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1808" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1809" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1809" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1810" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1810" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1811" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1811" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1812" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1812" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1813" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1813" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1814" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1814" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1815" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1815" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1816" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1816" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1817" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1817" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1818" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1818" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1819" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1819" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1820" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1820" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1821" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1821" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1822" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1822" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1823" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1823" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1824" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1824" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1825" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1825" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1826" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1826" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1827" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1827" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1828" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1828" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1829" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1829" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1830" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1830" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1831" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1831" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1832" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1832" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1833" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1833" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1834" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1834" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1835" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1835" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1836" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1836" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1837" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1837" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1838" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1838" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1839" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1839" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1840" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1840" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1841" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1841" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1842" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1842" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1843" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1843" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1844" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1844" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1845" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1845" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1846" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1846" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1847" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1847" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1848" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1848" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1849" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1849" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1850" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1850" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1851" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1851" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1852" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1852" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1853" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1853" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1854" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1854" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1855" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1855" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1856" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1856" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1857" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1857" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1858" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1858" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1859" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1859" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1860" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1860" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1861" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1861" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1862" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1862" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1863" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1863" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1864" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1864" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1865" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1865" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1866" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1866" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1867" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1867" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1868" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1868" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1869" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1869" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1870" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1870" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1871" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1871" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1872" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1872" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1873" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1873" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1874" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1874" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1875" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1875" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1876" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1876" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1877" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1877" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1878" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1878" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1879" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1879" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1880" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1880" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1881" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1881" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1882" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1882" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1883" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1883" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1884" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1884" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1885" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1885" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1886" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1886" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1887" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1887" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1888" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1888" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1889" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1889" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1890" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1890" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1891" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1891" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1892" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1892" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1893" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1893" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1894" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1894" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1895" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1895" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1896" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1896" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1897" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1897" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1898" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1898" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1899" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1899" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1900" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1900" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1901" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1901" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1902" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1902" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1903" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1903" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1904" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1904" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1905" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1905" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1906" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1906" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1907" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1907" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1908" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1908" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1909" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1909" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1910" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1910" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1911" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1911" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1912" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1912" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1913" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1913" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1914" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1914" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1915" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1915" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1916" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1916" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1917" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1917" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1918" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1918" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1919" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1919" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1920" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1920" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1921" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1921" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1922" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1922" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1923" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1923" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1924" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1924" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1925" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1925" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1926" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1926" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1927" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1927" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1928" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1928" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1929" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1929" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1930" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1930" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1931" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1931" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1932" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1932" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1933" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1933" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1934" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1934" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1935" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1935" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1936" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1936" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1937" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1937" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1938" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1938" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1939" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1939" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1940" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1940" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1941" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B1941" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1942" s="9"/>
+    </row>
+    <row r="1943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1943" s="9"/>
+    </row>
+    <row r="1944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1944" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -12472,24 +18533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010073EDDC06432ED7429F3FC456547BC680" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b1c1c57c2a9fe9b5aa7b75eb6d1c2397">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="c4c6f437-7a45-48d7-a31d-1f801e209eae" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7562bf0f9c2844e770fb8e0baccca691" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12654,25 +18697,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E3F893-7DBB-490F-902D-2FA303638DE0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7BDD72-4B01-4449-92FB-8A66C4946EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E36E1367-41DE-488F-B494-E460521520AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12689,4 +18732,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB7BDD72-4B01-4449-92FB-8A66C4946EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E3F893-7DBB-490F-902D-2FA303638DE0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>